--- a/기획서/구성도 총정리.xlsx
+++ b/기획서/구성도 총정리.xlsx
@@ -8,13 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\학교\공모전 프로젝트\NoJump\기획서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0D45AAED-5583-441F-BCCB-4F480AEB3727}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAC6683E-865B-41C3-A625-5DC51A15B4B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2628" yWindow="480" windowWidth="17280" windowHeight="11328" activeTab="1" xr2:uid="{6831196C-BD2B-4079-A5C5-73E04D2210C2}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="11328" xr2:uid="{6831196C-BD2B-4079-A5C5-73E04D2210C2}"/>
   </bookViews>
   <sheets>
     <sheet name="전체 스토리보드 구성안" sheetId="1" r:id="rId1"/>
-    <sheet name="스테이지4" sheetId="2" r:id="rId2"/>
+    <sheet name="스테이지1,2" sheetId="3" r:id="rId2"/>
+    <sheet name="스테이지3" sheetId="4" r:id="rId3"/>
+    <sheet name="스테이지4" sheetId="2" r:id="rId4"/>
+    <sheet name="스테이지5" sheetId="5" r:id="rId5"/>
+    <sheet name="스테이지6" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="79">
   <si>
     <t>전체 맵 컨셉 정리</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -200,6 +204,158 @@
   </si>
   <si>
     <t>떨어진 각설탕은 맵을 지나갈때, 길어진 상태로 밀어 사용할 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지 1,2 구성안</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>① 벽과 코인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>② 떨어지는 돌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진동이 일어나면서 돌이 떨어지기 시작한다. 무사히 돌을 피해 이동하자.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>③ 헤드라이트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지2 도입 전에 얻게 되는 헤드라이트를 이용해서 좁아진 시야를 넓힌다. 여러 각도로 회전하면서 주변을 확인하자.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>④ 풍차 돌리기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>풍차를 돌려 물건을 떨어뜨려 물 위를 지나갈 수 있게 만든다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>⑤ 레버 내리기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>벽에 붙어 있는 레버를 몸을 늘려 직접 내리면 문이 열린다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>⑥ 무게 제한 블록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몸의 크기를 늘려서 양쪽 끝에 있는 코인을 벽과 닿지 않게 먹는다. 일정 개수를 먹어야 문이 열린다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일정 무게 이상이 되면 점점 내려간다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지3 구성안</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상자나 책, 문, 책상을 이용한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>② 떨어지는 눈물</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>앨리스의 눈물이 위에서 아래로 떨어진다. 떨어지는 눈물을 무사히 피하며 이동한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>③ 채워지는 눈물</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>떨어진 눈물들이 쌓여 바닥을 채우기 시작했다. 눈물이 차올라서 빠지지 않게 유리병으로 이동한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>④ 유리병</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>채워지는 물을 피해 둥둥 뜰 수 있는 방법.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어 자신의 크기와 동일한 문을 유리병 안에서 찾아야한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지5 구성안</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나무 그루터기, 나무, 꽃 등으로 정원 느낌을 살려 맵을 구성한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>② 창든 카드 병정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나무 그루터기에서 나무로 이동할때 창에 찔리지 않게 주의하며 지나간다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>③ 내려가는 풀숲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>길어진 상태로 해당 블록에 올라갈 경우, 플레이어가 블록을 지나 점점 아래로 내려간다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>④ 늪구덩이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>길어진 상태로 해당 부분을 지나갈 경우 늪처럼 점점 빠져 구덩이 아래에 있는 가시와 접촉하게 된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>⑤ 3가지 장미</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 흰 장미 : 작은 상태일 때 닿으면 데미지 입음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 색칠 중인 장미 : 어떤 상태이든 닿으면 데미지 입음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 빨간 장미 : 긴 상태일때 닿으면 데미지 입음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>의자, 책상, 시계, 그리고 트럼프 카드 등으로 구성한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">② 샹들리에 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흔들리는 샹들리에가 떨어지지 않을때 빠른 속도로 이동한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -245,7 +401,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="35">
+  <borders count="52">
     <border>
       <left/>
       <right/>
@@ -643,13 +799,244 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -698,6 +1085,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -728,38 +1154,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -770,12 +1172,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -788,13 +1184,94 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1477,6 +1954,1147 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
+      <xdr:colOff>329452</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>63870</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>231136</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>1345</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{605A6A02-8A2F-5344-F724-3A0E50FFAE5D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect t="43096"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="329452" y="2080929"/>
+          <a:ext cx="5280508" cy="2402769"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>299357</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>206829</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>217269</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="그림 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D714AE94-120E-F235-2D78-7856712B578C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect b="58655"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="299357" y="206829"/>
+          <a:ext cx="5331823" cy="1778280"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>280019</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>62753</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>546847</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>92655</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="순서도: 연결자 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D8AF0E3-8BC4-46D9-80DE-9DFA21431424}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2297078" y="510988"/>
+          <a:ext cx="266828" cy="254020"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1600" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>345589</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>69477</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>636494</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>98611</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="순서도: 연결자 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00F6082C-A2BF-40E9-A2F4-DF0A7E3D8CA5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1017942" y="2534771"/>
+          <a:ext cx="290905" cy="253252"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1600" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>435236</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>51548</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>53788</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>80682</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="순서도: 연결자 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D26AAF2C-5F41-4C76-ADA7-3F62490DA7A1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1107589" y="3637430"/>
+          <a:ext cx="290905" cy="253252"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>3</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1600" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>489024</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>123266</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>107576</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="순서도: 연결자 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5C172C0-C144-4085-9424-585428EE8C37}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4523142" y="3036795"/>
+          <a:ext cx="290905" cy="253252"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>4</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1600" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>98612</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>26892</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>484095</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>115085</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="그림 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2970B038-38DE-6425-2044-AD5DC1EF6297}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6149788" y="251010"/>
+          <a:ext cx="2402542" cy="2553487"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>40790</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>123265</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>331695</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="순서도: 연결자 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88530B19-B05F-4865-B180-F6FF4E5EF337}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6091966" y="347383"/>
+          <a:ext cx="290905" cy="253252"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>5</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1600" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>35859</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>16271</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>628919</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>681</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="그림 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E501B7AD-31D7-9919-90B3-537EE55B3075}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6087035" y="2929800"/>
+          <a:ext cx="3282472" cy="1553234"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>31826</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>42583</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>322731</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>71717</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="순서도: 연결자 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F117A87F-D978-4519-8122-A96C74A3BD81}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6083002" y="2956112"/>
+          <a:ext cx="290905" cy="253252"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>6</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1600" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>183066</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>76329</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="그림 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C1729D8-30BB-A27B-468F-E776BDCBAE05}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8770620" y="358140"/>
+          <a:ext cx="2141406" cy="1486029"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>629322</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>110715</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>247874</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>139849</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="순서도: 연결자 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8451A12-2994-4FF5-8DD0-8F85045F9FAE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8676042" y="331695"/>
+          <a:ext cx="289112" cy="250114"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>4</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1600" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2141</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>3215</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>4906</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>192157</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F976BC15-100A-F044-0E89-1C210622E1B6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="671376" y="221876"/>
+          <a:ext cx="4687408" cy="2812872"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>430695</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>172277</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>622852</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>131612</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="순서도: 연결자 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A07A411-A9F8-4C45-80FF-3F553A112380}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1769165" y="828260"/>
+          <a:ext cx="192157" cy="177995"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1200" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>543338</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>172278</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>521859</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>164052</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="그림 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9FBA524-26C1-0FB3-8429-9DFB237E92F6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5897216" y="390939"/>
+          <a:ext cx="647756" cy="647756"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>649357</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>172279</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>149160</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>20993</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="그림 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1B333B7-1ED9-CBAF-821B-F9C22F86C2D2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6672470" y="390940"/>
+          <a:ext cx="838273" cy="1379340"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>92764</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>649357</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>52098</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="순서도: 연결자 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{300F45B4-6B75-4F04-8E3D-C06671FA33FB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5811078" y="311425"/>
+          <a:ext cx="192157" cy="177995"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1200" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>576470</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>218660</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>99392</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>177994</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="순서도: 연결자 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{338D1A47-2F4A-4AC6-A1A6-DACACA839FB6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2584174" y="2186608"/>
+          <a:ext cx="192157" cy="177995"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>3</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1200" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>86139</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>178903</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>278296</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>138238</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="순서도: 연결자 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE6676A4-B37B-4E06-82D0-D880E5E5C33B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4770782" y="834886"/>
+          <a:ext cx="192157" cy="177995"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>4</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1200" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>243841</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>7622</xdr:rowOff>
@@ -2167,6 +3785,838 @@
             <a:t>2</a:t>
           </a:r>
           <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>671719</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>11873</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>277265</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>81838</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="그림 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B16617C-7893-2A24-0884-3450BE300DA3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="671719" y="235991"/>
+          <a:ext cx="5656722" cy="3207612"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>582705</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>167994</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>322609</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>1948</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="그림 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9219701-4B45-0A49-DBAB-37C83C797DA3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6633881" y="392112"/>
+          <a:ext cx="4446375" cy="2968463"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>161363</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>53788</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>376516</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>60995</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="순서도: 연결자 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A17B2701-9997-498F-9ABB-E00E0098164C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2178422" y="2070847"/>
+          <a:ext cx="215153" cy="231324"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>528916</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>197224</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>71716</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>204430</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="순서도: 연결자 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A3F9B6F-14AC-4181-87DD-37EB355F347F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5235387" y="645459"/>
+          <a:ext cx="215153" cy="231324"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>215152</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>116542</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>430305</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>123748</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="순서도: 연결자 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16A6D3EE-33F4-4EDA-84A4-985FD8169AFA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6938681" y="564777"/>
+          <a:ext cx="215153" cy="231324"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>202601</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>92337</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>417754</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>99543</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="순서도: 연결자 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{203C9483-E59D-4DC0-B386-74CE79F9B492}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4896521" y="1639197"/>
+          <a:ext cx="215153" cy="228186"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>560741</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>199017</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>105334</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>206223</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="순서도: 연결자 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBC69806-2DB7-43F2-AA46-0C06D49260ED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8607461" y="640977"/>
+          <a:ext cx="215153" cy="228186"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>3</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>65441</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>145677</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>280594</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>152883</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="순서도: 연결자 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD34C9E1-034D-4DB2-B99F-307937AD4302}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9453281" y="587637"/>
+          <a:ext cx="215153" cy="228186"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>4</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>286421</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>61857</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>501574</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>69063</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="순서도: 연결자 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2EE28A36-14B4-4408-94A9-66F057367C20}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6992021" y="1608717"/>
+          <a:ext cx="215153" cy="228186"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>5</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>616819</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>210371</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>170084</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31A8FE30-A13C-0F97-6282-05483CE285F3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="616819" y="210371"/>
+          <a:ext cx="6258865" cy="3416749"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>464820</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>106266</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="순서도: 연결자 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7314627-FD88-4364-9142-AD4CF2C657E0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1805940" y="1645920"/>
+          <a:ext cx="213360" cy="228186"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>167640</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>182466</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="순서도: 연결자 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9946683-C989-4785-A738-6B8FA0D720F2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4861560" y="1501140"/>
+          <a:ext cx="213360" cy="228186"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>396240</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>83406</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="순서도: 연결자 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27DFBF69-5355-49A3-B01A-A83D874175C6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4419600" y="297180"/>
+          <a:ext cx="213360" cy="228186"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1400" b="1">
             <a:solidFill>
               <a:schemeClr val="tx1"/>
             </a:solidFill>
@@ -2478,27 +4928,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86638888-9DFA-42B2-8001-8C90E4626444}">
   <dimension ref="A13:O34"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="13" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="18"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="31"/>
     </row>
     <row r="14" spans="1:12" ht="18" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A14" s="6" t="s">
@@ -2510,20 +4960,20 @@
       <c r="K14" s="2"/>
     </row>
     <row r="15" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="18"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="30"/>
+      <c r="L15" s="31"/>
     </row>
     <row r="16" spans="1:12" ht="18" thickTop="1" x14ac:dyDescent="0.4"/>
     <row r="17" spans="1:15" x14ac:dyDescent="0.4">
@@ -2536,46 +4986,46 @@
       <c r="A19" s="1"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A23" s="22" t="s">
+      <c r="A23" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B23" s="23"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="24"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="37"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A24" s="19" t="s">
+      <c r="A24" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="B24" s="20"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="25" t="s">
+      <c r="B24" s="33"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="25"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="38"/>
+      <c r="H24" s="38"/>
+      <c r="I24" s="38"/>
     </row>
     <row r="26" spans="1:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="16" t="s">
+      <c r="A26" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="17"/>
-      <c r="J26" s="17"/>
-      <c r="K26" s="17"/>
-      <c r="L26" s="17"/>
-      <c r="M26" s="17"/>
-      <c r="N26" s="17"/>
-      <c r="O26" s="18"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="30"/>
+      <c r="I26" s="30"/>
+      <c r="J26" s="30"/>
+      <c r="K26" s="30"/>
+      <c r="L26" s="30"/>
+      <c r="M26" s="30"/>
+      <c r="N26" s="30"/>
+      <c r="O26" s="31"/>
     </row>
     <row r="27" spans="1:15" ht="18" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A27" s="7" t="s">
@@ -2682,32 +5132,32 @@
       <c r="O31" s="5"/>
     </row>
     <row r="32" spans="1:15" ht="18" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="26" t="s">
+      <c r="A32" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B32" s="28" t="s">
+      <c r="B32" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="C32" s="29"/>
-      <c r="D32" s="30" t="s">
+      <c r="C32" s="24"/>
+      <c r="D32" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="E32" s="30"/>
-      <c r="F32" s="30"/>
-      <c r="G32" s="30"/>
-      <c r="H32" s="30"/>
-      <c r="I32" s="30"/>
-      <c r="J32" s="30"/>
-      <c r="K32" s="30"/>
-      <c r="L32" s="30"/>
-      <c r="M32" s="30"/>
-      <c r="N32" s="30"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="18"/>
+      <c r="I32" s="18"/>
+      <c r="J32" s="18"/>
+      <c r="K32" s="18"/>
+      <c r="L32" s="18"/>
+      <c r="M32" s="18"/>
+      <c r="N32" s="18"/>
       <c r="O32" s="15"/>
     </row>
     <row r="33" spans="1:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="27"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="32"/>
+      <c r="A33" s="17"/>
+      <c r="B33" s="25"/>
+      <c r="C33" s="26"/>
       <c r="D33" s="10" t="s">
         <v>26</v>
       </c>
@@ -2724,25 +5174,25 @@
       <c r="O33" s="11"/>
     </row>
     <row r="34" spans="1:15" ht="18" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="33"/>
-      <c r="B34" s="34" t="s">
+      <c r="A34" s="19"/>
+      <c r="B34" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="C34" s="35" t="s">
+      <c r="C34" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="D34" s="35"/>
-      <c r="E34" s="35"/>
-      <c r="F34" s="35"/>
-      <c r="G34" s="35"/>
-      <c r="H34" s="35"/>
-      <c r="I34" s="35"/>
-      <c r="J34" s="35"/>
-      <c r="K34" s="35"/>
-      <c r="L34" s="35"/>
-      <c r="M34" s="35"/>
-      <c r="N34" s="35"/>
-      <c r="O34" s="36"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="27"/>
+      <c r="I34" s="27"/>
+      <c r="J34" s="27"/>
+      <c r="K34" s="27"/>
+      <c r="L34" s="27"/>
+      <c r="M34" s="27"/>
+      <c r="N34" s="27"/>
+      <c r="O34" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2762,151 +5212,437 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C138E6A2-E98E-49D8-A28E-55F40F154BA0}">
+  <dimension ref="B22:N29"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="6" max="6" width="8.796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="22" spans="2:14" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="23" spans="2:14" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B23" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="50"/>
+      <c r="D23" s="50"/>
+      <c r="E23" s="50"/>
+      <c r="F23" s="50"/>
+      <c r="G23" s="50"/>
+      <c r="H23" s="50"/>
+      <c r="I23" s="50"/>
+      <c r="J23" s="50"/>
+      <c r="K23" s="50"/>
+      <c r="L23" s="50"/>
+      <c r="M23" s="50"/>
+      <c r="N23" s="51"/>
+    </row>
+    <row r="24" spans="2:14" ht="18" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="B24" s="60" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" s="17"/>
+      <c r="D24" s="61" t="s">
+        <v>52</v>
+      </c>
+      <c r="E24" s="61"/>
+      <c r="F24" s="61"/>
+      <c r="G24" s="61"/>
+      <c r="H24" s="61"/>
+      <c r="I24" s="61"/>
+      <c r="J24" s="61"/>
+      <c r="K24" s="61"/>
+      <c r="L24" s="61"/>
+      <c r="M24" s="61"/>
+      <c r="N24" s="62"/>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B25" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" s="22"/>
+      <c r="D25" s="52" t="s">
+        <v>44</v>
+      </c>
+      <c r="E25" s="52"/>
+      <c r="F25" s="52"/>
+      <c r="G25" s="52"/>
+      <c r="H25" s="52"/>
+      <c r="I25" s="52"/>
+      <c r="J25" s="52"/>
+      <c r="K25" s="52"/>
+      <c r="L25" s="52"/>
+      <c r="M25" s="52"/>
+      <c r="N25" s="54"/>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B26" s="53" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26" s="22"/>
+      <c r="D26" s="52" t="s">
+        <v>46</v>
+      </c>
+      <c r="E26" s="52"/>
+      <c r="F26" s="52"/>
+      <c r="G26" s="52"/>
+      <c r="H26" s="52"/>
+      <c r="I26" s="52"/>
+      <c r="J26" s="52"/>
+      <c r="K26" s="52"/>
+      <c r="L26" s="52"/>
+      <c r="M26" s="52"/>
+      <c r="N26" s="54"/>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B27" s="55" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" s="22"/>
+      <c r="D27" s="52" t="s">
+        <v>48</v>
+      </c>
+      <c r="E27" s="52"/>
+      <c r="F27" s="52"/>
+      <c r="G27" s="52"/>
+      <c r="H27" s="52"/>
+      <c r="I27" s="52"/>
+      <c r="J27" s="52"/>
+      <c r="K27" s="52"/>
+      <c r="L27" s="52"/>
+      <c r="M27" s="52"/>
+      <c r="N27" s="54"/>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B28" s="55" t="s">
+        <v>49</v>
+      </c>
+      <c r="C28" s="22"/>
+      <c r="D28" s="52" t="s">
+        <v>50</v>
+      </c>
+      <c r="E28" s="52"/>
+      <c r="F28" s="52"/>
+      <c r="G28" s="52"/>
+      <c r="H28" s="52"/>
+      <c r="I28" s="52"/>
+      <c r="J28" s="52"/>
+      <c r="K28" s="52"/>
+      <c r="L28" s="52"/>
+      <c r="M28" s="52"/>
+      <c r="N28" s="54"/>
+    </row>
+    <row r="29" spans="2:14" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B29" s="56" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29" s="57"/>
+      <c r="D29" s="58" t="s">
+        <v>53</v>
+      </c>
+      <c r="E29" s="58"/>
+      <c r="F29" s="58"/>
+      <c r="G29" s="58"/>
+      <c r="H29" s="58"/>
+      <c r="I29" s="58"/>
+      <c r="J29" s="58"/>
+      <c r="K29" s="58"/>
+      <c r="L29" s="58"/>
+      <c r="M29" s="58"/>
+      <c r="N29" s="59"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="D29:N29"/>
+    <mergeCell ref="B23:N23"/>
+    <mergeCell ref="D24:N24"/>
+    <mergeCell ref="D25:N25"/>
+    <mergeCell ref="D26:N26"/>
+    <mergeCell ref="D27:N27"/>
+    <mergeCell ref="D28:N28"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB61364C-7092-4374-B974-5D8E093825D9}">
+  <dimension ref="B15:L21"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="15" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="16" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B16" s="69" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" s="70"/>
+      <c r="D16" s="70"/>
+      <c r="E16" s="70"/>
+      <c r="F16" s="70"/>
+      <c r="G16" s="70"/>
+      <c r="H16" s="70"/>
+      <c r="I16" s="70"/>
+      <c r="J16" s="70"/>
+      <c r="K16" s="70"/>
+      <c r="L16" s="71"/>
+    </row>
+    <row r="17" spans="2:12" ht="18" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="B17" s="68" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="17"/>
+      <c r="D17" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="E17" s="61"/>
+      <c r="F17" s="61"/>
+      <c r="G17" s="61"/>
+      <c r="H17" s="61"/>
+      <c r="I17" s="61"/>
+      <c r="J17" s="61"/>
+      <c r="K17" s="61"/>
+      <c r="L17" s="62"/>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B18" s="53" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" s="22"/>
+      <c r="D18" s="52" t="s">
+        <v>57</v>
+      </c>
+      <c r="E18" s="52"/>
+      <c r="F18" s="52"/>
+      <c r="G18" s="52"/>
+      <c r="H18" s="52"/>
+      <c r="I18" s="52"/>
+      <c r="J18" s="52"/>
+      <c r="K18" s="52"/>
+      <c r="L18" s="54"/>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B19" s="53" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" s="22"/>
+      <c r="D19" s="52" t="s">
+        <v>59</v>
+      </c>
+      <c r="E19" s="52"/>
+      <c r="F19" s="52"/>
+      <c r="G19" s="52"/>
+      <c r="H19" s="52"/>
+      <c r="I19" s="52"/>
+      <c r="J19" s="52"/>
+      <c r="K19" s="52"/>
+      <c r="L19" s="54"/>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B20" s="65" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" s="63"/>
+      <c r="D20" s="52" t="s">
+        <v>61</v>
+      </c>
+      <c r="E20" s="52"/>
+      <c r="F20" s="52"/>
+      <c r="G20" s="52"/>
+      <c r="H20" s="52"/>
+      <c r="I20" s="52"/>
+      <c r="J20" s="52"/>
+      <c r="K20" s="52"/>
+      <c r="L20" s="54"/>
+    </row>
+    <row r="21" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B21" s="66"/>
+      <c r="C21" s="67"/>
+      <c r="D21" s="58" t="s">
+        <v>62</v>
+      </c>
+      <c r="E21" s="58"/>
+      <c r="F21" s="58"/>
+      <c r="G21" s="58"/>
+      <c r="H21" s="58"/>
+      <c r="I21" s="58"/>
+      <c r="J21" s="58"/>
+      <c r="K21" s="58"/>
+      <c r="L21" s="59"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B16:L16"/>
+    <mergeCell ref="B20:C21"/>
+    <mergeCell ref="D17:L17"/>
+    <mergeCell ref="D18:L18"/>
+    <mergeCell ref="D19:L19"/>
+    <mergeCell ref="D20:L20"/>
+    <mergeCell ref="D21:L21"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C618D004-48C5-4283-AC4B-B7089F5CE503}">
   <dimension ref="B18:M26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21:C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="18" spans="2:13" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="19" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B19" s="37" t="s">
+      <c r="B19" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="38"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="38"/>
-      <c r="I19" s="38"/>
-      <c r="J19" s="38"/>
-      <c r="K19" s="38"/>
-      <c r="L19" s="38"/>
-      <c r="M19" s="39"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="43"/>
+      <c r="H19" s="43"/>
+      <c r="I19" s="43"/>
+      <c r="J19" s="43"/>
+      <c r="K19" s="43"/>
+      <c r="L19" s="43"/>
+      <c r="M19" s="44"/>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B20" s="40" t="s">
+      <c r="B20" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="41"/>
-      <c r="D20" s="46" t="s">
+      <c r="C20" s="22"/>
+      <c r="D20" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="E20" s="47"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="47"/>
-      <c r="H20" s="47"/>
-      <c r="I20" s="47"/>
-      <c r="J20" s="47"/>
-      <c r="K20" s="47"/>
-      <c r="L20" s="47"/>
-      <c r="M20" s="48"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="40"/>
+      <c r="J20" s="40"/>
+      <c r="K20" s="40"/>
+      <c r="L20" s="40"/>
+      <c r="M20" s="41"/>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B21" s="42" t="s">
+      <c r="B21" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="43"/>
-      <c r="D21" s="46" t="s">
+      <c r="C21" s="46"/>
+      <c r="D21" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="E21" s="47"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="47"/>
-      <c r="H21" s="47"/>
-      <c r="I21" s="47"/>
-      <c r="J21" s="47"/>
-      <c r="K21" s="47"/>
-      <c r="L21" s="47"/>
-      <c r="M21" s="48"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="40"/>
+      <c r="J21" s="40"/>
+      <c r="K21" s="40"/>
+      <c r="L21" s="40"/>
+      <c r="M21" s="41"/>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B22" s="44"/>
-      <c r="C22" s="45"/>
-      <c r="D22" s="46" t="s">
+      <c r="B22" s="47"/>
+      <c r="C22" s="48"/>
+      <c r="D22" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="E22" s="47"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="47"/>
-      <c r="H22" s="47"/>
-      <c r="I22" s="47"/>
-      <c r="J22" s="47"/>
-      <c r="K22" s="47"/>
-      <c r="L22" s="47"/>
-      <c r="M22" s="48"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="40"/>
+      <c r="J22" s="40"/>
+      <c r="K22" s="40"/>
+      <c r="L22" s="40"/>
+      <c r="M22" s="41"/>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B23" s="42" t="s">
+      <c r="B23" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="43"/>
-      <c r="D23" s="41" t="s">
+      <c r="C23" s="46"/>
+      <c r="D23" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="E23" s="41"/>
-      <c r="F23" s="41"/>
-      <c r="G23" s="41"/>
-      <c r="H23" s="41"/>
-      <c r="I23" s="41"/>
-      <c r="J23" s="41"/>
-      <c r="K23" s="41"/>
-      <c r="L23" s="41"/>
-      <c r="M23" s="41"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="22"/>
+      <c r="L23" s="22"/>
+      <c r="M23" s="22"/>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B24" s="44"/>
-      <c r="C24" s="45"/>
-      <c r="D24" s="46" t="s">
+      <c r="B24" s="47"/>
+      <c r="C24" s="48"/>
+      <c r="D24" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="E24" s="47"/>
-      <c r="F24" s="47"/>
-      <c r="G24" s="47"/>
-      <c r="H24" s="47"/>
-      <c r="I24" s="47"/>
-      <c r="J24" s="47"/>
-      <c r="K24" s="47"/>
-      <c r="L24" s="47"/>
-      <c r="M24" s="48"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="40"/>
+      <c r="I24" s="40"/>
+      <c r="J24" s="40"/>
+      <c r="K24" s="40"/>
+      <c r="L24" s="40"/>
+      <c r="M24" s="41"/>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B25" s="42" t="s">
+      <c r="B25" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="43"/>
-      <c r="D25" s="41" t="s">
+      <c r="C25" s="46"/>
+      <c r="D25" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="E25" s="41"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="41"/>
-      <c r="H25" s="41"/>
-      <c r="I25" s="41"/>
-      <c r="J25" s="41"/>
-      <c r="K25" s="41"/>
-      <c r="L25" s="41"/>
-      <c r="M25" s="41"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="22"/>
+      <c r="L25" s="22"/>
+      <c r="M25" s="22"/>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B26" s="44"/>
-      <c r="C26" s="45"/>
-      <c r="D26" s="46" t="s">
+      <c r="B26" s="47"/>
+      <c r="C26" s="48"/>
+      <c r="D26" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="E26" s="47"/>
-      <c r="F26" s="47"/>
-      <c r="G26" s="47"/>
-      <c r="H26" s="47"/>
-      <c r="I26" s="47"/>
-      <c r="J26" s="47"/>
-      <c r="K26" s="47"/>
-      <c r="L26" s="47"/>
-      <c r="M26" s="48"/>
+      <c r="E26" s="40"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="40"/>
+      <c r="H26" s="40"/>
+      <c r="I26" s="40"/>
+      <c r="J26" s="40"/>
+      <c r="K26" s="40"/>
+      <c r="L26" s="40"/>
+      <c r="M26" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -2924,4 +5660,256 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD3B1AB3-CC49-495A-99AD-7BB4C69F9D39}">
+  <dimension ref="B18:O26"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21:C22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="18" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="19" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B19" s="69" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" s="70"/>
+      <c r="D19" s="70"/>
+      <c r="E19" s="70"/>
+      <c r="F19" s="70"/>
+      <c r="G19" s="70"/>
+      <c r="H19" s="70"/>
+      <c r="I19" s="70"/>
+      <c r="J19" s="70"/>
+      <c r="K19" s="70"/>
+      <c r="L19" s="70"/>
+      <c r="M19" s="70"/>
+      <c r="N19" s="70"/>
+      <c r="O19" s="71"/>
+    </row>
+    <row r="20" spans="2:15" ht="18" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="B20" s="68" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="17"/>
+      <c r="D20" s="61" t="s">
+        <v>64</v>
+      </c>
+      <c r="E20" s="61"/>
+      <c r="F20" s="61"/>
+      <c r="G20" s="61"/>
+      <c r="H20" s="61"/>
+      <c r="I20" s="61"/>
+      <c r="J20" s="61"/>
+      <c r="K20" s="61"/>
+      <c r="L20" s="61"/>
+      <c r="M20" s="61"/>
+      <c r="N20" s="61"/>
+      <c r="O20" s="62"/>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B21" s="64" t="s">
+        <v>65</v>
+      </c>
+      <c r="C21" s="22"/>
+      <c r="D21" s="52" t="s">
+        <v>66</v>
+      </c>
+      <c r="E21" s="52"/>
+      <c r="F21" s="52"/>
+      <c r="G21" s="52"/>
+      <c r="H21" s="52"/>
+      <c r="I21" s="52"/>
+      <c r="J21" s="52"/>
+      <c r="K21" s="52"/>
+      <c r="L21" s="52"/>
+      <c r="M21" s="52"/>
+      <c r="N21" s="52"/>
+      <c r="O21" s="54"/>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B22" s="53" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" s="22"/>
+      <c r="D22" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="E22" s="52"/>
+      <c r="F22" s="52"/>
+      <c r="G22" s="52"/>
+      <c r="H22" s="52"/>
+      <c r="I22" s="52"/>
+      <c r="J22" s="52"/>
+      <c r="K22" s="52"/>
+      <c r="L22" s="52"/>
+      <c r="M22" s="52"/>
+      <c r="N22" s="52"/>
+      <c r="O22" s="54"/>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B23" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="C23" s="22"/>
+      <c r="D23" s="52" t="s">
+        <v>70</v>
+      </c>
+      <c r="E23" s="52"/>
+      <c r="F23" s="52"/>
+      <c r="G23" s="52"/>
+      <c r="H23" s="52"/>
+      <c r="I23" s="52"/>
+      <c r="J23" s="52"/>
+      <c r="K23" s="52"/>
+      <c r="L23" s="52"/>
+      <c r="M23" s="52"/>
+      <c r="N23" s="52"/>
+      <c r="O23" s="54"/>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B24" s="65" t="s">
+        <v>71</v>
+      </c>
+      <c r="C24" s="63"/>
+      <c r="D24" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="E24" s="52"/>
+      <c r="F24" s="52"/>
+      <c r="G24" s="52"/>
+      <c r="H24" s="52"/>
+      <c r="I24" s="52"/>
+      <c r="J24" s="52"/>
+      <c r="K24" s="52"/>
+      <c r="L24" s="52"/>
+      <c r="M24" s="52"/>
+      <c r="N24" s="52"/>
+      <c r="O24" s="54"/>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B25" s="65"/>
+      <c r="C25" s="63"/>
+      <c r="D25" s="52" t="s">
+        <v>73</v>
+      </c>
+      <c r="E25" s="52"/>
+      <c r="F25" s="52"/>
+      <c r="G25" s="52"/>
+      <c r="H25" s="52"/>
+      <c r="I25" s="52"/>
+      <c r="J25" s="52"/>
+      <c r="K25" s="52"/>
+      <c r="L25" s="52"/>
+      <c r="M25" s="52"/>
+      <c r="N25" s="52"/>
+      <c r="O25" s="54"/>
+    </row>
+    <row r="26" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B26" s="66"/>
+      <c r="C26" s="67"/>
+      <c r="D26" s="58" t="s">
+        <v>74</v>
+      </c>
+      <c r="E26" s="58"/>
+      <c r="F26" s="58"/>
+      <c r="G26" s="58"/>
+      <c r="H26" s="58"/>
+      <c r="I26" s="58"/>
+      <c r="J26" s="58"/>
+      <c r="K26" s="58"/>
+      <c r="L26" s="58"/>
+      <c r="M26" s="58"/>
+      <c r="N26" s="58"/>
+      <c r="O26" s="59"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="B19:O19"/>
+    <mergeCell ref="B24:C26"/>
+    <mergeCell ref="D20:O20"/>
+    <mergeCell ref="D21:O21"/>
+    <mergeCell ref="D22:O22"/>
+    <mergeCell ref="D23:O23"/>
+    <mergeCell ref="D24:O24"/>
+    <mergeCell ref="D25:O25"/>
+    <mergeCell ref="D26:O26"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE3CCAFE-CEE6-48A9-8735-EA3AFEF10E87}">
+  <dimension ref="B18:K21"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="18" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="19" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B19" s="69" t="s">
+        <v>75</v>
+      </c>
+      <c r="C19" s="70"/>
+      <c r="D19" s="70"/>
+      <c r="E19" s="70"/>
+      <c r="F19" s="70"/>
+      <c r="G19" s="70"/>
+      <c r="H19" s="70"/>
+      <c r="I19" s="70"/>
+      <c r="J19" s="70"/>
+      <c r="K19" s="71"/>
+    </row>
+    <row r="20" spans="2:11" ht="18" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="B20" s="60" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="17"/>
+      <c r="D20" s="76" t="s">
+        <v>76</v>
+      </c>
+      <c r="E20" s="77"/>
+      <c r="F20" s="77"/>
+      <c r="G20" s="77"/>
+      <c r="H20" s="77"/>
+      <c r="I20" s="77"/>
+      <c r="J20" s="77"/>
+      <c r="K20" s="78"/>
+    </row>
+    <row r="21" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B21" s="72" t="s">
+        <v>77</v>
+      </c>
+      <c r="C21" s="57"/>
+      <c r="D21" s="73" t="s">
+        <v>78</v>
+      </c>
+      <c r="E21" s="74"/>
+      <c r="F21" s="74"/>
+      <c r="G21" s="74"/>
+      <c r="H21" s="74"/>
+      <c r="I21" s="74"/>
+      <c r="J21" s="74"/>
+      <c r="K21" s="75"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B19:K19"/>
+    <mergeCell ref="D20:K20"/>
+    <mergeCell ref="D21:K21"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>